--- a/inv_signal/t28当天是否调仓测算.xlsx
+++ b/inv_signal/t28当天是否调仓测算.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/inv_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B19FD06-D9E0-894A-8E34-DC4E4FA47023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D1629-C361-8148-B4BE-11B2554B4484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
+    <workbookView xWindow="12620" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,12 +419,12 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>B3*1.007</f>
-        <v>5624.4977999999992</v>
+        <f>B3*(1-0.021)</f>
+        <v>5867.1469999999999</v>
       </c>
       <c r="C2">
-        <f>C3*1.02</f>
-        <v>3223.1897999999997</v>
+        <f>C3*(1-0.025)</f>
+        <v>3202.875</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -432,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5585.4</v>
+        <v>5993</v>
       </c>
       <c r="C3">
-        <v>3159.99</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -443,10 +443,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5494.63</v>
+        <v>5673</v>
       </c>
       <c r="C4">
-        <v>3097.97</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -454,40 +454,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5389.63</v>
+        <v>5625</v>
       </c>
       <c r="C5">
-        <v>3078.11</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>B3-B5</f>
-        <v>195.76999999999953</v>
+        <v>368</v>
       </c>
       <c r="C6">
         <f>C3-C5</f>
-        <v>81.879999999999654</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>B6/B5</f>
-        <v>3.6323458196573705E-2</v>
+        <v>6.5422222222222229E-2</v>
       </c>
       <c r="C7" s="1">
         <f>C6/C5</f>
-        <v>2.6600738765021281E-2</v>
+        <v>6.3450955001618653E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f>(B2-B4)/B4</f>
-        <v>2.3635404021744699E-2</v>
+        <v>3.4222986074387438E-2</v>
       </c>
       <c r="C9" s="1">
         <f>(C2-C4)/C4</f>
-        <v>4.0419952420455929E-2</v>
+        <v>1.7108605906637028E-2</v>
       </c>
     </row>
   </sheetData>

--- a/inv_signal/t28当天是否调仓测算.xlsx
+++ b/inv_signal/t28当天是否调仓测算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/inv_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D1629-C361-8148-B4BE-11B2554B4484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952DAED-ED70-F340-A61B-FBED3E85212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
+    <workbookView xWindow="10360" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>t</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>t-19</t>
+  </si>
+  <si>
+    <t>zz100</t>
+  </si>
+  <si>
+    <t>cyb</t>
   </si>
 </sst>
 </file>
@@ -401,17 +407,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>903</v>
-      </c>
-      <c r="C1">
-        <v>399006</v>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -419,12 +425,12 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>B3*(1-0.021)</f>
-        <v>5867.1469999999999</v>
+        <f>B3*(1-0.037)</f>
+        <v>5771.259</v>
       </c>
       <c r="C2">
-        <f>C3*(1-0.025)</f>
-        <v>3202.875</v>
+        <f>C3*(1-0.0447)</f>
+        <v>3138.1605</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,11 +489,11 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f>(B2-B4)/B4</f>
-        <v>3.4222986074387438E-2</v>
+        <v>1.7320465362242202E-2</v>
       </c>
       <c r="C9" s="1">
         <f>(C2-C4)/C4</f>
-        <v>1.7108605906637028E-2</v>
+        <v>-3.442203874245806E-3</v>
       </c>
     </row>
   </sheetData>

--- a/inv_signal/t28当天是否调仓测算.xlsx
+++ b/inv_signal/t28当天是否调仓测算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/inv_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952DAED-ED70-F340-A61B-FBED3E85212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194585F9-ECDB-6448-B267-B11D2FB8A978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
+    <workbookView xWindow="7800" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,11 +426,10 @@
       </c>
       <c r="B2">
         <f>B3*(1-0.037)</f>
-        <v>5771.259</v>
+        <v>4916.1149999999998</v>
       </c>
       <c r="C2">
-        <f>C3*(1-0.0447)</f>
-        <v>3138.1605</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -438,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5993</v>
+        <v>5105</v>
       </c>
       <c r="C3">
-        <v>3285</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -449,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5673</v>
+        <v>5230</v>
       </c>
       <c r="C4">
-        <v>3149</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -460,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5625</v>
+        <v>5346</v>
       </c>
       <c r="C5">
-        <v>3089</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>B3-B5</f>
-        <v>368</v>
+        <v>-241</v>
       </c>
       <c r="C6">
         <f>C3-C5</f>
-        <v>196</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>B6/B5</f>
-        <v>6.5422222222222229E-2</v>
+        <v>-4.5080433969322861E-2</v>
       </c>
       <c r="C7" s="1">
         <f>C6/C5</f>
-        <v>6.3450955001618653E-2</v>
+        <v>-1.3425253991291727E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f>(B2-B4)/B4</f>
-        <v>1.7320465362242202E-2</v>
+        <v>-6.0016252390057402E-2</v>
       </c>
       <c r="C9" s="1">
         <f>(C2-C4)/C4</f>
-        <v>-3.442203874245806E-3</v>
+        <v>4.8789712556732222E-2</v>
       </c>
     </row>
   </sheetData>

--- a/inv_signal/t28当天是否调仓测算.xlsx
+++ b/inv_signal/t28当天是否调仓测算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/inv_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194585F9-ECDB-6448-B267-B11D2FB8A978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EBE55-755D-B346-9BD0-80C8EFB01B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
+    <workbookView xWindow="5260" yWindow="2420" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
         <v>4916.1149999999998</v>
       </c>
       <c r="C2">
-        <v>2773</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -440,7 +440,7 @@
         <v>5105</v>
       </c>
       <c r="C3">
-        <v>2719</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -451,7 +451,7 @@
         <v>5230</v>
       </c>
       <c r="C4">
-        <v>2644</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -462,7 +462,7 @@
         <v>5346</v>
       </c>
       <c r="C5">
-        <v>2756</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,7 +472,7 @@
       </c>
       <c r="C6">
         <f>C3-C5</f>
-        <v>-37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
       </c>
       <c r="C7" s="1">
         <f>C6/C5</f>
-        <v>-1.3425253991291727E-2</v>
+        <v>4.8200514138817478E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -492,7 +492,7 @@
       </c>
       <c r="C9" s="1">
         <f>(C2-C4)/C4</f>
-        <v>4.8789712556732222E-2</v>
+        <v>1.3592233009708738E-2</v>
       </c>
     </row>
   </sheetData>

--- a/inv_signal/t28当天是否调仓测算.xlsx
+++ b/inv_signal/t28当天是否调仓测算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/inv_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EBE55-755D-B346-9BD0-80C8EFB01B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF4A45-A1E3-B54D-8AB4-EE13945923F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="2420" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
+    <workbookView xWindow="7020" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>t</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>cyb</t>
+  </si>
+  <si>
+    <t>预测</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
         <v>4916.1149999999998</v>
       </c>
       <c r="C2">
-        <v>3132</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -440,7 +443,7 @@
         <v>5105</v>
       </c>
       <c r="C3">
-        <v>3262</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -451,7 +454,7 @@
         <v>5230</v>
       </c>
       <c r="C4">
-        <v>3090</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -462,7 +465,7 @@
         <v>5346</v>
       </c>
       <c r="C5">
-        <v>3112</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,7 +475,7 @@
       </c>
       <c r="C6">
         <f>C3-C5</f>
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -482,17 +485,20 @@
       </c>
       <c r="C7" s="1">
         <f>C6/C5</f>
-        <v>4.8200514138817478E-2</v>
+        <v>1.1326860841423949E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" s="1">
         <f>(B2-B4)/B4</f>
         <v>-6.0016252390057402E-2</v>
       </c>
       <c r="C9" s="1">
         <f>(C2-C4)/C4</f>
-        <v>1.3592233009708738E-2</v>
+        <v>1.0597302504816955E-2</v>
       </c>
     </row>
   </sheetData>

--- a/inv_signal/t28当天是否调仓测算.xlsx
+++ b/inv_signal/t28当天是否调仓测算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/inv_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF4A45-A1E3-B54D-8AB4-EE13945923F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C1C40-7378-AA40-B2E5-58BC61BC541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{D539AF3C-8F04-CD43-B969-F54CF2B03682}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,7 +432,7 @@
         <v>4916.1149999999998</v>
       </c>
       <c r="C2">
-        <v>3147</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -443,7 +443,7 @@
         <v>5105</v>
       </c>
       <c r="C3">
-        <v>3125</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -454,7 +454,7 @@
         <v>5230</v>
       </c>
       <c r="C4">
-        <v>3114</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -465,7 +465,7 @@
         <v>5346</v>
       </c>
       <c r="C5">
-        <v>3090</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
       </c>
       <c r="C6">
         <f>C3-C5</f>
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -485,7 +485,7 @@
       </c>
       <c r="C7" s="1">
         <f>C6/C5</f>
-        <v>1.1326860841423949E-2</v>
+        <v>3.3929673041332507E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -498,7 +498,7 @@
       </c>
       <c r="C9" s="1">
         <f>(C2-C4)/C4</f>
-        <v>1.0597302504816955E-2</v>
+        <v>1.332094175960347E-2</v>
       </c>
     </row>
   </sheetData>
